--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50978224412882</v>
+        <v>3.250639</v>
       </c>
       <c r="H2">
-        <v>1.50978224412882</v>
+        <v>9.751916999999999</v>
       </c>
       <c r="I2">
-        <v>0.005219588881430423</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="J2">
-        <v>0.005219588881430423</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.151646949453937</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N2">
-        <v>0.151646949453937</v>
+        <v>0.69148</v>
       </c>
       <c r="O2">
-        <v>0.01042604596466986</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P2">
-        <v>0.01042604596466986</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q2">
-        <v>0.2289538716618547</v>
+        <v>0.7492506185733332</v>
       </c>
       <c r="R2">
-        <v>0.2289538716618547</v>
+        <v>6.743255567159999</v>
       </c>
       <c r="S2">
-        <v>5.441967359447336E-05</v>
+        <v>0.0001414411794118454</v>
       </c>
       <c r="T2">
-        <v>5.441967359447336E-05</v>
+        <v>0.0001414411794118453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50978224412882</v>
+        <v>3.250639</v>
       </c>
       <c r="H3">
-        <v>1.50978224412882</v>
+        <v>9.751916999999999</v>
       </c>
       <c r="I3">
-        <v>0.005219588881430423</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="J3">
-        <v>0.005219588881430423</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.29552741007957</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N3">
-        <v>4.29552741007957</v>
+        <v>12.941443</v>
       </c>
       <c r="O3">
-        <v>0.2953265224342183</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P3">
-        <v>0.2953265224342183</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q3">
-        <v>6.485311012906791</v>
+        <v>14.02265311069233</v>
       </c>
       <c r="R3">
-        <v>6.485311012906791</v>
+        <v>126.203877996231</v>
       </c>
       <c r="S3">
-        <v>0.001541483032889158</v>
+        <v>0.00264715242843057</v>
       </c>
       <c r="T3">
-        <v>0.001541483032889158</v>
+        <v>0.002647152428430569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.50978224412882</v>
+        <v>3.250639</v>
       </c>
       <c r="H4">
-        <v>1.50978224412882</v>
+        <v>9.751916999999999</v>
       </c>
       <c r="I4">
-        <v>0.005219588881430423</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="J4">
-        <v>0.005219588881430423</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.283070309117136</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N4">
-        <v>0.283070309117136</v>
+        <v>0.886007</v>
       </c>
       <c r="O4">
-        <v>0.01946167769754597</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P4">
-        <v>0.01946167769754597</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q4">
-        <v>0.4273745265451083</v>
+        <v>0.9600296361576666</v>
       </c>
       <c r="R4">
-        <v>0.4273745265451083</v>
+        <v>8.640266725418998</v>
       </c>
       <c r="S4">
-        <v>0.0001015819565240934</v>
+        <v>0.0001812313805853399</v>
       </c>
       <c r="T4">
-        <v>0.0001015819565240934</v>
+        <v>0.0001812313805853399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.50978224412882</v>
+        <v>3.250639</v>
       </c>
       <c r="H5">
-        <v>1.50978224412882</v>
+        <v>9.751916999999999</v>
       </c>
       <c r="I5">
-        <v>0.005219588881430423</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="J5">
-        <v>0.005219588881430423</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.496229936752384</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N5">
-        <v>0.496229936752384</v>
+        <v>2.150013</v>
       </c>
       <c r="O5">
-        <v>0.03411684935473826</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P5">
-        <v>0.03411684935473826</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q5">
-        <v>0.7491991475139168</v>
+        <v>2.329638702769</v>
       </c>
       <c r="R5">
-        <v>0.7491991475139168</v>
+        <v>20.966748324921</v>
       </c>
       <c r="S5">
-        <v>0.0001780759275614285</v>
+        <v>0.0004397818801278415</v>
       </c>
       <c r="T5">
-        <v>0.0001780759275614285</v>
+        <v>0.0004397818801278415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.50978224412882</v>
+        <v>3.250639</v>
       </c>
       <c r="H6">
-        <v>1.50978224412882</v>
+        <v>9.751916999999999</v>
       </c>
       <c r="I6">
-        <v>0.005219588881430423</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="J6">
-        <v>0.005219588881430423</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.31853603120976</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N6">
-        <v>9.31853603120976</v>
+        <v>0.934958</v>
       </c>
       <c r="O6">
-        <v>0.6406689045488276</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P6">
-        <v>0.6406689045488276</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q6">
-        <v>14.06896024119514</v>
+        <v>1.013070312720666</v>
       </c>
       <c r="R6">
-        <v>14.06896024119514</v>
+        <v>9.117632814485999</v>
       </c>
       <c r="S6">
-        <v>0.00334402829086127</v>
+        <v>0.0001912442329793199</v>
       </c>
       <c r="T6">
-        <v>0.00334402829086127</v>
+        <v>0.0001912442329793199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>238.571696309487</v>
+        <v>3.250639</v>
       </c>
       <c r="H7">
-        <v>238.571696309487</v>
+        <v>9.751916999999999</v>
       </c>
       <c r="I7">
-        <v>0.8247852816679072</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="J7">
-        <v>0.8247852816679072</v>
+        <v>0.01077619457448595</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.151646949453937</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N7">
-        <v>0.151646949453937</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O7">
-        <v>0.01042604596466986</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P7">
-        <v>0.01042604596466986</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q7">
-        <v>36.17866997138479</v>
+        <v>38.00965573067366</v>
       </c>
       <c r="R7">
-        <v>36.17866997138479</v>
+        <v>342.086901576063</v>
       </c>
       <c r="S7">
-        <v>0.008599249257652783</v>
+        <v>0.007175343472951032</v>
       </c>
       <c r="T7">
-        <v>0.008599249257652783</v>
+        <v>0.007175343472951032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>238.571696309487</v>
+        <v>239.8260396666667</v>
       </c>
       <c r="H8">
-        <v>238.571696309487</v>
+        <v>719.478119</v>
       </c>
       <c r="I8">
-        <v>0.8247852816679072</v>
+        <v>0.795047394520396</v>
       </c>
       <c r="J8">
-        <v>0.8247852816679072</v>
+        <v>0.7950473945203959</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.29552741007957</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N8">
-        <v>4.29552741007957</v>
+        <v>0.69148</v>
       </c>
       <c r="O8">
-        <v>0.2953265224342183</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P8">
-        <v>0.2953265224342183</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q8">
-        <v>1024.791260766581</v>
+        <v>55.27830330290222</v>
       </c>
       <c r="R8">
-        <v>1024.791260766581</v>
+        <v>497.50472972612</v>
       </c>
       <c r="S8">
-        <v>0.2435809689899103</v>
+        <v>0.01043526454464041</v>
       </c>
       <c r="T8">
-        <v>0.2435809689899103</v>
+        <v>0.0104352645446404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>238.571696309487</v>
+        <v>239.8260396666667</v>
       </c>
       <c r="H9">
-        <v>238.571696309487</v>
+        <v>719.478119</v>
       </c>
       <c r="I9">
-        <v>0.8247852816679072</v>
+        <v>0.795047394520396</v>
       </c>
       <c r="J9">
-        <v>0.8247852816679072</v>
+        <v>0.7950473945203959</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.283070309117136</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N9">
-        <v>0.283070309117136</v>
+        <v>12.941443</v>
       </c>
       <c r="O9">
-        <v>0.01946167769754597</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P9">
-        <v>0.01946167769754597</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q9">
-        <v>67.53256382092597</v>
+        <v>1034.565007420635</v>
       </c>
       <c r="R9">
-        <v>67.53256382092597</v>
+        <v>9311.085066785716</v>
       </c>
       <c r="S9">
-        <v>0.01605170532150048</v>
+        <v>0.1953019339596008</v>
       </c>
       <c r="T9">
-        <v>0.01605170532150048</v>
+        <v>0.1953019339596008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>238.571696309487</v>
+        <v>239.8260396666667</v>
       </c>
       <c r="H10">
-        <v>238.571696309487</v>
+        <v>719.478119</v>
       </c>
       <c r="I10">
-        <v>0.8247852816679072</v>
+        <v>0.795047394520396</v>
       </c>
       <c r="J10">
-        <v>0.8247852816679072</v>
+        <v>0.7950473945203959</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.496229936752384</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N10">
-        <v>0.496229936752384</v>
+        <v>0.886007</v>
       </c>
       <c r="O10">
-        <v>0.03411684935473826</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P10">
-        <v>0.03411684935473826</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q10">
-        <v>118.3864177705657</v>
+        <v>70.82918330898144</v>
       </c>
       <c r="R10">
-        <v>118.3864177705657</v>
+        <v>637.462649780833</v>
       </c>
       <c r="S10">
-        <v>0.02813907520466935</v>
+        <v>0.01337091084832998</v>
       </c>
       <c r="T10">
-        <v>0.02813907520466935</v>
+        <v>0.01337091084832997</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>238.571696309487</v>
+        <v>239.8260396666667</v>
       </c>
       <c r="H11">
-        <v>238.571696309487</v>
+        <v>719.478119</v>
       </c>
       <c r="I11">
-        <v>0.8247852816679072</v>
+        <v>0.795047394520396</v>
       </c>
       <c r="J11">
-        <v>0.8247852816679072</v>
+        <v>0.7950473945203959</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.31853603120976</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N11">
-        <v>9.31853603120976</v>
+        <v>2.150013</v>
       </c>
       <c r="O11">
-        <v>0.6406689045488276</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P11">
-        <v>0.6406689045488276</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q11">
-        <v>2223.138948086787</v>
+        <v>171.8763676739497</v>
       </c>
       <c r="R11">
-        <v>2223.138948086787</v>
+        <v>1546.887309065547</v>
       </c>
       <c r="S11">
-        <v>0.5284142828941744</v>
+        <v>0.03244628106296054</v>
       </c>
       <c r="T11">
-        <v>0.5284142828941744</v>
+        <v>0.03244628106296053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.172895638975531</v>
+        <v>239.8260396666667</v>
       </c>
       <c r="H12">
-        <v>0.172895638975531</v>
+        <v>719.478119</v>
       </c>
       <c r="I12">
-        <v>0.0005977313340078534</v>
+        <v>0.795047394520396</v>
       </c>
       <c r="J12">
-        <v>0.0005977313340078534</v>
+        <v>0.7950473945203959</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.151646949453937</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N12">
-        <v>0.151646949453937</v>
+        <v>0.934958</v>
       </c>
       <c r="O12">
-        <v>0.01042604596466986</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P12">
-        <v>0.01042604596466986</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q12">
-        <v>0.02621909622452849</v>
+        <v>74.74242479822244</v>
       </c>
       <c r="R12">
-        <v>0.02621909622452849</v>
+        <v>672.6818231840019</v>
       </c>
       <c r="S12">
-        <v>6.231974362889315E-06</v>
+        <v>0.0141096402905766</v>
       </c>
       <c r="T12">
-        <v>6.231974362889315E-06</v>
+        <v>0.01410964029057659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.172895638975531</v>
+        <v>239.8260396666667</v>
       </c>
       <c r="H13">
-        <v>0.172895638975531</v>
+        <v>719.478119</v>
       </c>
       <c r="I13">
-        <v>0.0005977313340078534</v>
+        <v>0.795047394520396</v>
       </c>
       <c r="J13">
-        <v>0.0005977313340078534</v>
+        <v>0.7950473945203959</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.29552741007957</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N13">
-        <v>4.29552741007957</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O13">
-        <v>0.2953265224342183</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P13">
-        <v>0.2953265224342183</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q13">
-        <v>0.7426779563026151</v>
+        <v>2804.281005359527</v>
       </c>
       <c r="R13">
-        <v>0.7426779563026151</v>
+        <v>25238.52904823574</v>
       </c>
       <c r="S13">
-        <v>0.0001765259162225055</v>
+        <v>0.5293833638142876</v>
       </c>
       <c r="T13">
-        <v>0.0001765259162225055</v>
+        <v>0.5293833638142876</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.172895638975531</v>
+        <v>0.1941253333333333</v>
       </c>
       <c r="H14">
-        <v>0.172895638975531</v>
+        <v>0.582376</v>
       </c>
       <c r="I14">
-        <v>0.0005977313340078534</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="J14">
-        <v>0.0005977313340078534</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.283070309117136</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N14">
-        <v>0.283070309117136</v>
+        <v>0.69148</v>
       </c>
       <c r="O14">
-        <v>0.01946167769754597</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P14">
-        <v>0.01946167769754597</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q14">
-        <v>0.04894162196980831</v>
+        <v>0.04474459516444445</v>
       </c>
       <c r="R14">
-        <v>0.04894162196980831</v>
+        <v>0.40270135648</v>
       </c>
       <c r="S14">
-        <v>1.163285457218504E-05</v>
+        <v>8.446744194105923E-06</v>
       </c>
       <c r="T14">
-        <v>1.163285457218504E-05</v>
+        <v>8.446744194105923E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.172895638975531</v>
+        <v>0.1941253333333333</v>
       </c>
       <c r="H15">
-        <v>0.172895638975531</v>
+        <v>0.582376</v>
       </c>
       <c r="I15">
-        <v>0.0005977313340078534</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="J15">
-        <v>0.0005977313340078534</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.496229936752384</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N15">
-        <v>0.496229936752384</v>
+        <v>12.941443</v>
       </c>
       <c r="O15">
-        <v>0.03411684935473826</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P15">
-        <v>0.03411684935473826</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q15">
-        <v>0.08579599199359078</v>
+        <v>0.8374206453964445</v>
       </c>
       <c r="R15">
-        <v>0.08579599199359078</v>
+        <v>7.536785808568</v>
       </c>
       <c r="S15">
-        <v>2.039270987695267E-05</v>
+        <v>0.000158085640255109</v>
       </c>
       <c r="T15">
-        <v>2.039270987695267E-05</v>
+        <v>0.0001580856402551089</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.172895638975531</v>
+        <v>0.1941253333333333</v>
       </c>
       <c r="H16">
-        <v>0.172895638975531</v>
+        <v>0.582376</v>
       </c>
       <c r="I16">
-        <v>0.0005977313340078534</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="J16">
-        <v>0.0005977313340078534</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.31853603120976</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N16">
-        <v>9.31853603120976</v>
+        <v>0.886007</v>
       </c>
       <c r="O16">
-        <v>0.6406689045488276</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P16">
-        <v>0.6406689045488276</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q16">
-        <v>1.61113424143252</v>
+        <v>0.05733213473688889</v>
       </c>
       <c r="R16">
-        <v>1.61113424143252</v>
+        <v>0.515989212632</v>
       </c>
       <c r="S16">
-        <v>0.0003829478789733208</v>
+        <v>1.082298039449761E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003829478789733208</v>
+        <v>1.082298039449761E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>48.9987218702284</v>
+        <v>0.1941253333333333</v>
       </c>
       <c r="H17">
-        <v>48.9987218702284</v>
+        <v>0.582376</v>
       </c>
       <c r="I17">
-        <v>0.1693973981166546</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="J17">
-        <v>0.1693973981166546</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.151646949453937</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N17">
-        <v>0.151646949453937</v>
+        <v>2.150013</v>
       </c>
       <c r="O17">
-        <v>0.01042604596466986</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P17">
-        <v>0.01042604596466986</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q17">
-        <v>7.430506698762044</v>
+        <v>0.1391239967653333</v>
       </c>
       <c r="R17">
-        <v>7.430506698762044</v>
+        <v>1.252115970888</v>
       </c>
       <c r="S17">
-        <v>0.001766145059059721</v>
+        <v>2.62633913128395E-05</v>
       </c>
       <c r="T17">
-        <v>0.001766145059059721</v>
+        <v>2.62633913128395E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>48.9987218702284</v>
+        <v>0.1941253333333333</v>
       </c>
       <c r="H18">
-        <v>48.9987218702284</v>
+        <v>0.582376</v>
       </c>
       <c r="I18">
-        <v>0.1693973981166546</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="J18">
-        <v>0.1693973981166546</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>4.29552741007957</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N18">
-        <v>4.29552741007957</v>
+        <v>0.934958</v>
       </c>
       <c r="O18">
-        <v>0.2953265224342183</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P18">
-        <v>0.2953265224342183</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q18">
-        <v>210.4753528524314</v>
+        <v>0.06049967780088888</v>
       </c>
       <c r="R18">
-        <v>210.4753528524314</v>
+        <v>0.544497100208</v>
       </c>
       <c r="S18">
-        <v>0.05002754449519639</v>
+        <v>1.142093922923712E-05</v>
       </c>
       <c r="T18">
-        <v>0.05002754449519639</v>
+        <v>1.142093922923712E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>48.9987218702284</v>
+        <v>0.1941253333333333</v>
       </c>
       <c r="H19">
-        <v>48.9987218702284</v>
+        <v>0.582376</v>
       </c>
       <c r="I19">
-        <v>0.1693973981166546</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="J19">
-        <v>0.1693973981166546</v>
+        <v>0.00064354496572426</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.283070309117136</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N19">
-        <v>0.283070309117136</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O19">
-        <v>0.01946167769754597</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P19">
-        <v>0.01946167769754597</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q19">
-        <v>13.87008334615012</v>
+        <v>2.269903575451556</v>
       </c>
       <c r="R19">
-        <v>13.87008334615012</v>
+        <v>20.429132179064</v>
       </c>
       <c r="S19">
-        <v>0.003296757564949212</v>
+        <v>0.0004285052703384709</v>
       </c>
       <c r="T19">
-        <v>0.003296757564949212</v>
+        <v>0.0004285052703384709</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>48.9987218702284</v>
+        <v>0.2162743333333333</v>
       </c>
       <c r="H20">
-        <v>48.9987218702284</v>
+        <v>0.6488229999999999</v>
       </c>
       <c r="I20">
-        <v>0.1693973981166546</v>
+        <v>0.0007169711239750806</v>
       </c>
       <c r="J20">
-        <v>0.1693973981166546</v>
+        <v>0.0007169711239750806</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.496229936752384</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N20">
-        <v>0.496229936752384</v>
+        <v>0.69148</v>
       </c>
       <c r="O20">
-        <v>0.03411684935473826</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P20">
-        <v>0.03411684935473826</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q20">
-        <v>24.3146326546111</v>
+        <v>0.04984979200444444</v>
       </c>
       <c r="R20">
-        <v>24.3146326546111</v>
+        <v>0.4486481280399999</v>
       </c>
       <c r="S20">
-        <v>0.005779305512630526</v>
+        <v>9.410487225181648E-06</v>
       </c>
       <c r="T20">
-        <v>0.005779305512630526</v>
+        <v>9.410487225181646E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2162743333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.6488229999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.0007169711239750806</v>
+      </c>
+      <c r="J21">
+        <v>0.0007169711239750806</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N21">
+        <v>12.941443</v>
+      </c>
+      <c r="O21">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="P21">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="Q21">
+        <v>0.9329673190654444</v>
+      </c>
+      <c r="R21">
+        <v>8.396705871588999</v>
+      </c>
+      <c r="S21">
+        <v>0.0001761226413300695</v>
+      </c>
+      <c r="T21">
+        <v>0.0001761226413300695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2162743333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.6488229999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.0007169711239750806</v>
+      </c>
+      <c r="J22">
+        <v>0.0007169711239750806</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2953356666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.886007</v>
+      </c>
+      <c r="O22">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="P22">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="Q22">
+        <v>0.06387352441788888</v>
+      </c>
+      <c r="R22">
+        <v>0.574861719761</v>
+      </c>
+      <c r="S22">
+        <v>1.205784340099716E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.205784340099716E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2162743333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.6488229999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.0007169711239750806</v>
+      </c>
+      <c r="J23">
+        <v>0.0007169711239750806</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N23">
+        <v>2.150013</v>
+      </c>
+      <c r="O23">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P23">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q23">
+        <v>0.1549975427443333</v>
+      </c>
+      <c r="R23">
+        <v>1.394977884699</v>
+      </c>
+      <c r="S23">
+        <v>2.925994948584842E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.925994948584842E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2162743333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.6488229999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.0007169711239750806</v>
+      </c>
+      <c r="J24">
+        <v>0.0007169711239750806</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.934958</v>
+      </c>
+      <c r="O24">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P24">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q24">
+        <v>0.06740247271488888</v>
+      </c>
+      <c r="R24">
+        <v>0.6066222544339999</v>
+      </c>
+      <c r="S24">
+        <v>1.272402718094722E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.272402718094722E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2162743333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.6488229999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.0007169711239750806</v>
+      </c>
+      <c r="J25">
+        <v>0.0007169711239750806</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N25">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O25">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P25">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q25">
+        <v>2.528891382088556</v>
+      </c>
+      <c r="R25">
+        <v>22.760022438797</v>
+      </c>
+      <c r="S25">
+        <v>0.0004773961753520367</v>
+      </c>
+      <c r="T25">
+        <v>0.0004773961753520367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.092741</v>
+      </c>
+      <c r="H26">
+        <v>0.278223</v>
+      </c>
+      <c r="I26">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="J26">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2304933333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.69148</v>
+      </c>
+      <c r="O26">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="P26">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="Q26">
+        <v>0.02137618222666667</v>
+      </c>
+      <c r="R26">
+        <v>0.19238564004</v>
+      </c>
+      <c r="S26">
+        <v>4.035328567655145E-06</v>
+      </c>
+      <c r="T26">
+        <v>4.035328567655144E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.092741</v>
+      </c>
+      <c r="H27">
+        <v>0.278223</v>
+      </c>
+      <c r="I27">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="J27">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N27">
+        <v>12.941443</v>
+      </c>
+      <c r="O27">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="P27">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="Q27">
+        <v>0.4000674550876667</v>
+      </c>
+      <c r="R27">
+        <v>3.600607095789</v>
+      </c>
+      <c r="S27">
+        <v>7.552347811155882E-05</v>
+      </c>
+      <c r="T27">
+        <v>7.552347811155881E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.092741</v>
+      </c>
+      <c r="H28">
+        <v>0.278223</v>
+      </c>
+      <c r="I28">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="J28">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2953356666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.886007</v>
+      </c>
+      <c r="O28">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="P28">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="Q28">
+        <v>0.02738972506233333</v>
+      </c>
+      <c r="R28">
+        <v>0.246507525561</v>
+      </c>
+      <c r="S28">
+        <v>5.170546303931324E-06</v>
+      </c>
+      <c r="T28">
+        <v>5.170546303931323E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>48.9987218702284</v>
-      </c>
-      <c r="H21">
-        <v>48.9987218702284</v>
-      </c>
-      <c r="I21">
-        <v>0.1693973981166546</v>
-      </c>
-      <c r="J21">
-        <v>0.1693973981166546</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>9.31853603120976</v>
-      </c>
-      <c r="N21">
-        <v>9.31853603120976</v>
-      </c>
-      <c r="O21">
-        <v>0.6406689045488276</v>
-      </c>
-      <c r="P21">
-        <v>0.6406689045488276</v>
-      </c>
-      <c r="Q21">
-        <v>456.596355230949</v>
-      </c>
-      <c r="R21">
-        <v>456.596355230949</v>
-      </c>
-      <c r="S21">
-        <v>0.1085276454848187</v>
-      </c>
-      <c r="T21">
-        <v>0.1085276454848187</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.092741</v>
+      </c>
+      <c r="H29">
+        <v>0.278223</v>
+      </c>
+      <c r="I29">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="J29">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N29">
+        <v>2.150013</v>
+      </c>
+      <c r="O29">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P29">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q29">
+        <v>0.06646478521099999</v>
+      </c>
+      <c r="R29">
+        <v>0.598183066899</v>
+      </c>
+      <c r="S29">
+        <v>1.254701347794577E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.254701347794577E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.092741</v>
+      </c>
+      <c r="H30">
+        <v>0.278223</v>
+      </c>
+      <c r="I30">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="J30">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.934958</v>
+      </c>
+      <c r="O30">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P30">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q30">
+        <v>0.02890297995933333</v>
+      </c>
+      <c r="R30">
+        <v>0.260126819634</v>
+      </c>
+      <c r="S30">
+        <v>5.456213812341237E-06</v>
+      </c>
+      <c r="T30">
+        <v>5.456213812341237E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.092741</v>
+      </c>
+      <c r="H31">
+        <v>0.278223</v>
+      </c>
+      <c r="I31">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="J31">
+        <v>0.0003074457240660687</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N31">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O31">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P31">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q31">
+        <v>1.084418627266333</v>
+      </c>
+      <c r="R31">
+        <v>9.759767645397002</v>
+      </c>
+      <c r="S31">
+        <v>0.0002047131437926364</v>
+      </c>
+      <c r="T31">
+        <v>0.0002047131437926364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>58.07017199999999</v>
+      </c>
+      <c r="H32">
+        <v>174.210516</v>
+      </c>
+      <c r="I32">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="J32">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2304933333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.69148</v>
+      </c>
+      <c r="O32">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="P32">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="Q32">
+        <v>13.38478751152</v>
+      </c>
+      <c r="R32">
+        <v>120.46308760368</v>
+      </c>
+      <c r="S32">
+        <v>0.00252673816327458</v>
+      </c>
+      <c r="T32">
+        <v>0.00252673816327458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>58.07017199999999</v>
+      </c>
+      <c r="H33">
+        <v>174.210516</v>
+      </c>
+      <c r="I33">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="J33">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N33">
+        <v>12.941443</v>
+      </c>
+      <c r="O33">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="P33">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="Q33">
+        <v>250.503940312732</v>
+      </c>
+      <c r="R33">
+        <v>2254.535462814588</v>
+      </c>
+      <c r="S33">
+        <v>0.04728934736498912</v>
+      </c>
+      <c r="T33">
+        <v>0.04728934736498911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>58.07017199999999</v>
+      </c>
+      <c r="H34">
+        <v>174.210516</v>
+      </c>
+      <c r="I34">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="J34">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2953356666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.886007</v>
+      </c>
+      <c r="O34">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="P34">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="Q34">
+        <v>17.150192961068</v>
+      </c>
+      <c r="R34">
+        <v>154.351736649612</v>
+      </c>
+      <c r="S34">
+        <v>0.003237559582096982</v>
+      </c>
+      <c r="T34">
+        <v>0.003237559582096981</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>58.07017199999999</v>
+      </c>
+      <c r="H35">
+        <v>174.210516</v>
+      </c>
+      <c r="I35">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="J35">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N35">
+        <v>2.150013</v>
+      </c>
+      <c r="O35">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P35">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q35">
+        <v>41.61720823741199</v>
+      </c>
+      <c r="R35">
+        <v>374.554874136708</v>
+      </c>
+      <c r="S35">
+        <v>0.007856365908828121</v>
+      </c>
+      <c r="T35">
+        <v>0.007856365908828121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>58.07017199999999</v>
+      </c>
+      <c r="H36">
+        <v>174.210516</v>
+      </c>
+      <c r="I36">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="J36">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N36">
+        <v>0.934958</v>
+      </c>
+      <c r="O36">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P36">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q36">
+        <v>18.097723957592</v>
+      </c>
+      <c r="R36">
+        <v>162.879515618328</v>
+      </c>
+      <c r="S36">
+        <v>0.00341643150873326</v>
+      </c>
+      <c r="T36">
+        <v>0.00341643150873326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>58.07017199999999</v>
+      </c>
+      <c r="H37">
+        <v>174.210516</v>
+      </c>
+      <c r="I37">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="J37">
+        <v>0.1925084490913527</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N37">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O37">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P37">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q37">
+        <v>679.013340435836</v>
+      </c>
+      <c r="R37">
+        <v>6111.120063922524</v>
+      </c>
+      <c r="S37">
+        <v>0.1281820065634307</v>
+      </c>
+      <c r="T37">
+        <v>0.1281820065634307</v>
       </c>
     </row>
   </sheetData>
